--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3564" windowWidth="10152" xWindow="0" yWindow="2376"/>
+    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -12,13 +12,12 @@
     <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
     <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:B8"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -573,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1276,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Payroll Suite MonthlyCatA201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>21</t>
@@ -183,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +275,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -705,7 +702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -912,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +974,13 @@
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>25</v>
@@ -998,7 +995,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>40</v>
@@ -1012,13 +1009,13 @@
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>25</v>
@@ -1033,7 +1030,7 @@
         <v>42</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>40</v>
@@ -1049,13 +1046,13 @@
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>25</v>
@@ -1070,7 +1067,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>40</v>
@@ -1086,13 +1083,13 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>25</v>
@@ -1107,7 +1104,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>40</v>
@@ -1123,13 +1120,13 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>25</v>
@@ -1144,7 +1141,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>40</v>
@@ -1160,13 +1157,13 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>25</v>
@@ -1181,7 +1178,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>40</v>
@@ -1197,13 +1194,13 @@
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>25</v>
@@ -1218,7 +1215,7 @@
         <v>42</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>40</v>
@@ -1234,13 +1231,13 @@
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>25</v>
@@ -1255,7 +1252,7 @@
         <v>42</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>40</v>
@@ -1271,13 +1268,13 @@
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>25</v>
@@ -1292,7 +1289,7 @@
         <v>42</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>40</v>
@@ -1307,8 +1304,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1316,10 +1313,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1384,13 +1381,13 @@
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>25</v>
@@ -1405,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>43</v>
@@ -1414,7 +1411,7 @@
         <v>41</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>5</v>
@@ -1422,8 +1419,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -181,6 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,57 +229,57 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,10 +296,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -333,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +491,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -499,13 +500,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -515,7 +516,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -524,7 +525,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -533,7 +534,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,12 +544,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -579,7 +580,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -598,7 +599,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -610,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -619,10 +620,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -653,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -667,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -681,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -696,13 +697,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -711,12 +712,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -903,13 +904,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -918,20 +919,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -972,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36.6" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>48</v>
       </c>
@@ -1044,7 +1045,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1082,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>48</v>
       </c>
@@ -1118,7 +1119,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>48</v>
       </c>
@@ -1155,7 +1156,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -1192,7 +1193,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>48</v>
       </c>
@@ -1229,7 +1230,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1267,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
@@ -1304,16 +1305,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1322,20 +1323,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
@@ -1419,9 +1420,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIMonthlyCat_A" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIMonthlyCat_A" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -63,33 +63,6 @@
     <t>PayrollFrequency</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 108</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 109</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -168,20 +141,46 @@
     <t>21</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 547</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 548</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 549</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 550</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 551</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 552</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 553</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 554</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 555</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NIMCA EMPLOYER</t>
+  </si>
+  <si>
+    <t>NIMCA_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,57 +228,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -296,10 +289,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -334,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +484,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -500,13 +493,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -516,7 +509,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -525,7 +518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -534,7 +527,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,12 +537,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -580,7 +573,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -599,7 +592,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -611,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -620,10 +613,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,23 +633,23 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -668,56 +661,56 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,685 +737,685 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="11">
         <v>8160.48</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>8160.6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>8160.48</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>8160.6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>45000.480000000003</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>45000.6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45003.48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15">
-        <v>45003.48</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="11">
+        <v>45003.6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15">
-        <v>45003.6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>66000</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="36.6" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="I4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A10"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A3:A10" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -181,6 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,51 +229,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -327,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +485,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -493,13 +494,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -509,7 +510,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -518,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -527,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -537,12 +538,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -573,7 +574,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -592,7 +593,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -604,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -613,10 +614,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -647,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -661,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -675,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -690,13 +691,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -705,12 +706,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,13 +898,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -912,20 +913,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -966,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -1038,7 +1039,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
@@ -1075,7 +1076,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1113,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
@@ -1149,7 +1150,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1187,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
@@ -1223,7 +1224,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>49</v>
       </c>
@@ -1260,7 +1261,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
@@ -1298,16 +1299,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A3:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1316,20 +1317,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1413,9 +1414,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIMonthlyCat_A" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIMonthlyCat_A" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -181,7 +181,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,51 +228,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -290,10 +289,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -328,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +484,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -494,13 +493,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -510,7 +509,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -519,7 +518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -528,7 +527,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -538,12 +537,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -574,7 +573,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -593,7 +592,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -605,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -614,10 +613,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -648,7 +647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -662,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -676,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -691,27 +690,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,13 +897,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -913,20 +912,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -967,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="36.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -1039,7 +1038,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
@@ -1076,7 +1075,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1113,7 +1112,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
@@ -1150,7 +1149,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -1187,7 +1186,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
@@ -1224,7 +1223,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>49</v>
       </c>
@@ -1261,7 +1260,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
@@ -1299,38 +1298,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A3:A10"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="A3:A10" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="64.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1414,9 +1413,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_A" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_A" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -181,6 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,51 +229,51 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -327,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +485,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -493,13 +494,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -509,7 +510,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -518,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -527,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -537,12 +538,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -573,7 +574,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -592,7 +593,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -604,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -613,10 +614,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -647,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -661,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -675,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -690,13 +691,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -705,12 +706,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,13 +898,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -912,20 +913,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -966,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -1038,7 +1039,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
@@ -1075,7 +1076,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1113,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
@@ -1149,7 +1150,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1187,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
@@ -1223,7 +1224,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>49</v>
       </c>
@@ -1260,7 +1261,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
@@ -1298,16 +1299,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A3:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1316,20 +1317,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1413,9 +1414,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatA201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
